--- a/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/02) FASCIA 2018-2017 - GIRAFFA - Prova n.1.xlsx
+++ b/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/02) FASCIA 2018-2017 - GIRAFFA - Prova n.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\karate\2024.04.28 - Gara Montebelluna\Tabelloni generati singoli\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ADCE7EF-8525-4A1F-9FFB-638377560759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72FDBB7-93CB-4352-A2A7-BC5D0098EDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
+    <workbookView xWindow="-26505" yWindow="2295" windowWidth="21600" windowHeight="12585" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
   </bookViews>
   <sheets>
     <sheet name="TAB.SINGOLI" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>FASCIA</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>N.TABELLONE</t>
   </si>
   <si>
     <t>2018-2017</t>
@@ -304,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -802,11 +805,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,6 +972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -981,6 +996,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,23 +1023,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,84 +1388,88 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="6" width="24.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="58">
+      <c r="E1" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="75"/>
+      <c r="K1" s="59">
         <v>2</v>
       </c>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="16"/>
       <c r="C2" s="18"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="67">
+      <c r="C3" s="65">
         <v>1</v>
       </c>
       <c r="D3" s="17"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="68"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="17"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="69" t="s">
+    <row r="6" spans="1:14" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
@@ -1476,24 +1501,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
@@ -1505,27 +1530,27 @@
         <v>2017</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="38"/>
@@ -1537,27 +1562,27 @@
         <v>2017</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="34"/>
@@ -1569,27 +1594,27 @@
         <v>2018</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="38"/>
@@ -1601,27 +1626,27 @@
         <v>2018</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="34"/>
@@ -1633,27 +1658,27 @@
         <v>2018</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="38"/>
@@ -1665,27 +1690,27 @@
         <v>2017</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="34"/>
@@ -1697,27 +1722,27 @@
         <v>2017</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="38"/>
@@ -1729,27 +1754,27 @@
         <v>2017</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="34"/>
@@ -1761,27 +1786,27 @@
         <v>2017</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
@@ -1793,27 +1818,27 @@
         <v>2017</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="34"/>
@@ -1825,27 +1850,27 @@
         <v>2017</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="38"/>
@@ -1857,16 +1882,17 @@
         <v>2017</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="K1:L3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G6:K6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -1893,15 +1919,15 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -1915,7 +1941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -1943,7 +1969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +1991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1976,12 +2002,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="25" t="s">
         <v>26</v>
       </c>

--- a/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/02) FASCIA 2018-2017 - GIRAFFA - Prova n.1.xlsx
+++ b/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/02) FASCIA 2018-2017 - GIRAFFA - Prova n.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\karate\2024.04.28 - Gara Montebelluna\Tabelloni generati singoli\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72FDBB7-93CB-4352-A2A7-BC5D0098EDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B2422F-C09B-4B05-8788-9359FA1BD9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26505" yWindow="2295" windowWidth="21600" windowHeight="12585" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
   </bookViews>

--- a/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/02) FASCIA 2018-2017 - GIRAFFA - Prova n.1.xlsx
+++ b/2024.04.28 - Gara Montebelluna/Tabelloni generati singoli/Excel/02) FASCIA 2018-2017 - GIRAFFA - Prova n.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\karate\2024.04.28 - Gara Montebelluna\Tabelloni generati singoli\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B2422F-C09B-4B05-8788-9359FA1BD9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{780E81A2-675A-48FB-BB7A-7F701E653195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26505" yWindow="2295" windowWidth="21600" windowHeight="12585" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
   </bookViews>
@@ -148,6 +148,99 @@
     <t>-</t>
   </si>
   <si>
+    <t>REN BU KAN MOGLIANO</t>
+  </si>
+  <si>
+    <t>L'ALTRELLI</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>TAIKYOKU SHODAN</t>
+  </si>
+  <si>
+    <t>BIANCA/GIALLA</t>
+  </si>
+  <si>
+    <t>KI KAI DOJO CARBONERA</t>
+  </si>
+  <si>
+    <t>ZARATTINI</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>SCUOLA KARATE RESANA</t>
+  </si>
+  <si>
+    <t>DISEGNA</t>
+  </si>
+  <si>
+    <t>RICCARDO</t>
+  </si>
+  <si>
+    <t>CECCATO</t>
+  </si>
+  <si>
+    <t>EDOARDO</t>
+  </si>
+  <si>
+    <t>GIALLA</t>
+  </si>
+  <si>
+    <t>REN BU KAN SPRESIANO</t>
+  </si>
+  <si>
+    <t>COLELLA</t>
+  </si>
+  <si>
+    <t>MATTEO</t>
+  </si>
+  <si>
+    <t>KARATE SACILE</t>
+  </si>
+  <si>
+    <t>DE FRANCESCO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>ANASTASI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO</t>
+  </si>
+  <si>
+    <t>SCUOLA KARATE GALLIERA VENETA</t>
+  </si>
+  <si>
+    <t>BERTOLLO</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENOVESE </t>
+  </si>
+  <si>
+    <t>ALENA</t>
+  </si>
+  <si>
+    <t>BOTNARU</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>MARCON</t>
+  </si>
+  <si>
+    <t>GIOVANNI</t>
+  </si>
+  <si>
     <t>DOJO SHOTOKAN TREVISO</t>
   </si>
   <si>
@@ -155,99 +248,6 @@
   </si>
   <si>
     <t>PIETRO</t>
-  </si>
-  <si>
-    <t>TAIKYOKU SHODAN</t>
-  </si>
-  <si>
-    <t>GIALLA</t>
-  </si>
-  <si>
-    <t>KARATE SACILE</t>
-  </si>
-  <si>
-    <t>ANASTASI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO</t>
-  </si>
-  <si>
-    <t>DE FRANCESCO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>BIANCA/GIALLA</t>
-  </si>
-  <si>
-    <t>KI KAI DOJO CARBONERA</t>
-  </si>
-  <si>
-    <t>MARCON</t>
-  </si>
-  <si>
-    <t>GIOVANNI</t>
-  </si>
-  <si>
-    <t>ZARATTINI</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>REN BU KAN MOGLIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENOVESE </t>
-  </si>
-  <si>
-    <t>ALENA</t>
-  </si>
-  <si>
-    <t>L'ALTRELLI</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>REN BU KAN SPRESIANO</t>
-  </si>
-  <si>
-    <t>COLELLA</t>
-  </si>
-  <si>
-    <t>MATTEO</t>
-  </si>
-  <si>
-    <t>SCUOLA KARATE GALLIERA VENETA</t>
-  </si>
-  <si>
-    <t>BERTOLLO</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>SCUOLA KARATE RESANA</t>
-  </si>
-  <si>
-    <t>BOTNARU</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>CECCATO</t>
-  </si>
-  <si>
-    <t>EDOARDO</t>
-  </si>
-  <si>
-    <t>DISEGNA</t>
-  </si>
-  <si>
-    <t>RICCARDO</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1559,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="41"/>
       <c r="M9" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>39</v>
@@ -1573,13 +1573,13 @@
         <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>38</v>
@@ -1591,10 +1591,10 @@
       <c r="K10" s="35"/>
       <c r="L10" s="37"/>
       <c r="M10" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1605,13 +1605,13 @@
         <v>34</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="E11" s="51" t="s">
         <v>47</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="52" t="s">
         <v>38</v>
@@ -1623,10 +1623,10 @@
       <c r="K11" s="39"/>
       <c r="L11" s="41"/>
       <c r="M11" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>34</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>38</v>
@@ -1655,10 +1655,10 @@
       <c r="K12" s="35"/>
       <c r="L12" s="37"/>
       <c r="M12" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1669,13 +1669,13 @@
         <v>34</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>38</v>
@@ -1687,10 +1687,10 @@
       <c r="K13" s="39"/>
       <c r="L13" s="41"/>
       <c r="M13" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,13 +1701,13 @@
         <v>34</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>38</v>
@@ -1722,7 +1722,7 @@
         <v>2017</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1733,13 +1733,13 @@
         <v>34</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>38</v>
@@ -1765,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>60</v>
@@ -1786,7 +1786,7 @@
         <v>2017</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1797,13 +1797,13 @@
         <v>34</v>
       </c>
       <c r="C17" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="E17" s="51" t="s">
         <v>63</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>64</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>38</v>
@@ -1818,7 +1818,7 @@
         <v>2017</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,13 +1829,13 @@
         <v>34</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D18" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>66</v>
       </c>
       <c r="F18" s="56" t="s">
         <v>38</v>
@@ -1847,7 +1847,7 @@
       <c r="K18" s="35"/>
       <c r="L18" s="37"/>
       <c r="M18" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>39</v>
@@ -1861,7 +1861,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>67</v>
@@ -1882,7 +1882,7 @@
         <v>2017</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
